--- a/Output/Stat_VPRP.xlsx
+++ b/Output/Stat_VPRP.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="11">
   <si>
     <t>Row</t>
   </si>
@@ -66,7 +66,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -84,11 +84,19 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -100,6 +108,14 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -114,106 +130,106 @@
   <cols>
     <col min="4" max="4" width="25.08984375" customWidth="true"/>
     <col min="5" max="5" width="13.453125" customWidth="true"/>
-    <col min="6" max="6" width="14.08984375" customWidth="true"/>
+    <col min="6" max="6" width="13.453125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="17" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2">
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="17" t="s">
         <v>1</v>
       </c>
       <c r="E2">
-        <v>10.059502542080073</v>
+        <v>10.07791573948769</v>
       </c>
       <c r="F2">
-        <v>210.46770882911994</v>
+        <v>7045.3495639034263</v>
       </c>
     </row>
     <row r="3">
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="17" t="s">
         <v>8</v>
       </c>
       <c r="E3">
         <v>0.059103263436858233</v>
       </c>
       <c r="F3">
-        <v>-0.022771894627719336</v>
+        <v>0.16988011411108705</v>
       </c>
     </row>
     <row r="4">
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="17" t="s">
         <v>9</v>
       </c>
       <c r="E4">
         <v>0.11684283276478677</v>
       </c>
       <c r="F4">
-        <v>0.16036118230361174</v>
+        <v>4.9085782377437646</v>
       </c>
     </row>
     <row r="5">
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="17" t="s">
         <v>2</v>
       </c>
       <c r="E5">
         <v>1.455790570591321</v>
       </c>
       <c r="F5">
-        <v>-0.707934248676651</v>
+        <v>0.11283123843518464</v>
       </c>
     </row>
     <row r="6">
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E6">
         <v>0.23635793001687666</v>
       </c>
       <c r="F6">
-        <v>-0.032803446560638098</v>
+        <v>0.023423540918396747</v>
       </c>
     </row>
     <row r="7">
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="17" t="s">
         <v>3</v>
       </c>
       <c r="E7">
         <v>3.701820466474925</v>
       </c>
       <c r="F7">
-        <v>7.1379649083833652</v>
+        <v>178.17529364752838</v>
       </c>
     </row>
     <row r="8">
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="17" t="s">
         <v>4</v>
       </c>
       <c r="E8">
         <v>0.29347246679713512</v>
       </c>
       <c r="F8">
-        <v>-0.58803947247941835</v>
+        <v>1.2618461243471484</v>
       </c>
     </row>
     <row r="9">
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="17" t="s">
         <v>5</v>
       </c>
       <c r="E9">
         <v>0.25005830535340229</v>
       </c>
       <c r="F9">
-        <v>0.69419213574478666</v>
+        <v>7.2525377227515566</v>
       </c>
     </row>
   </sheetData>

--- a/Output/Stat_VPRP.xlsx
+++ b/Output/Stat_VPRP.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="11">
   <si>
     <t>Row</t>
   </si>
@@ -66,7 +66,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="49">
     <border>
       <left/>
       <right/>
@@ -92,11 +92,41 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -116,6 +146,36 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -130,106 +190,106 @@
   <cols>
     <col min="4" max="4" width="25.08984375" customWidth="true"/>
     <col min="5" max="5" width="13.453125" customWidth="true"/>
-    <col min="6" max="6" width="13.453125" customWidth="true"/>
+    <col min="6" max="6" width="15.08984375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="47" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2">
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="47" t="s">
         <v>1</v>
       </c>
       <c r="E2">
-        <v>10.07791573948769</v>
+        <v>1605.6938790332692</v>
       </c>
       <c r="F2">
-        <v>7045.3495639034263</v>
+        <v>3171.1842239772759</v>
       </c>
     </row>
     <row r="3">
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="47" t="s">
         <v>8</v>
       </c>
       <c r="E3">
-        <v>0.059103263436858233</v>
+        <v>0.084445530685270498</v>
       </c>
       <c r="F3">
-        <v>0.16988011411108705</v>
+        <v>-0.0070808876837392676</v>
       </c>
     </row>
     <row r="4">
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="47" t="s">
         <v>9</v>
       </c>
       <c r="E4">
-        <v>0.11684283276478677</v>
+        <v>0.17526424914718011</v>
       </c>
       <c r="F4">
-        <v>4.9085782377437646</v>
+        <v>0.30941291182199715</v>
       </c>
     </row>
     <row r="5">
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="47" t="s">
         <v>2</v>
       </c>
       <c r="E5">
-        <v>1.455790570591321</v>
+        <v>1.4714174986712174</v>
       </c>
       <c r="F5">
-        <v>0.11283123843518464</v>
+        <v>-0.19123290707166024</v>
       </c>
     </row>
     <row r="6">
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="47" t="s">
         <v>10</v>
       </c>
       <c r="E6">
-        <v>0.23635793001687666</v>
+        <v>0.23390180720007445</v>
       </c>
       <c r="F6">
-        <v>0.023423540918396747</v>
+        <v>-0.0081761759208082534</v>
       </c>
     </row>
     <row r="7">
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="47" t="s">
         <v>3</v>
       </c>
       <c r="E7">
-        <v>3.701820466474925</v>
+        <v>3.7018204664749268</v>
       </c>
       <c r="F7">
-        <v>178.17529364752838</v>
+        <v>3.8373172290675619</v>
       </c>
     </row>
     <row r="8">
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="47" t="s">
         <v>4</v>
       </c>
       <c r="E8">
-        <v>0.29347246679713512</v>
+        <v>0.29347246679713596</v>
       </c>
       <c r="F8">
-        <v>1.2618461243471484</v>
+        <v>0.11463536889099386</v>
       </c>
     </row>
     <row r="9">
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="47" t="s">
         <v>5</v>
       </c>
       <c r="E9">
-        <v>0.25005830535340229</v>
+        <v>0.36102983425449831</v>
       </c>
       <c r="F9">
-        <v>7.2525377227515566</v>
+        <v>0.8660390569286196</v>
       </c>
     </row>
   </sheetData>
